--- a/reports/CarDetails.xlsx
+++ b/reports/CarDetails.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="315">
   <si>
     <t>Name</t>
   </si>
@@ -761,6 +761,210 @@
   </si>
   <si>
     <t>07947416896</t>
+  </si>
+  <si>
+    <t>07947116878</t>
+  </si>
+  <si>
+    <t>07942680960</t>
+  </si>
+  <si>
+    <t>07947151826</t>
+  </si>
+  <si>
+    <t>07947417907</t>
+  </si>
+  <si>
+    <t>07947420278</t>
+  </si>
+  <si>
+    <t>07947105762</t>
+  </si>
+  <si>
+    <t>07947420313</t>
+  </si>
+  <si>
+    <t>07947106113</t>
+  </si>
+  <si>
+    <t>07947106024</t>
+  </si>
+  <si>
+    <t>07947137189</t>
+  </si>
+  <si>
+    <t>07947152837</t>
+  </si>
+  <si>
+    <t>07947152742</t>
+  </si>
+  <si>
+    <t>07947152798</t>
+  </si>
+  <si>
+    <t>07947141881</t>
+  </si>
+  <si>
+    <t>07947138742</t>
+  </si>
+  <si>
+    <t>07947137928</t>
+  </si>
+  <si>
+    <t>07947139410</t>
+  </si>
+  <si>
+    <t>07947138214</t>
+  </si>
+  <si>
+    <t>07947139118</t>
+  </si>
+  <si>
+    <t>07942684103</t>
+  </si>
+  <si>
+    <t>07942683830</t>
+  </si>
+  <si>
+    <t>07947132737</t>
+  </si>
+  <si>
+    <t>07942683857</t>
+  </si>
+  <si>
+    <t>07947149201</t>
+  </si>
+  <si>
+    <t>07947415469</t>
+  </si>
+  <si>
+    <t>Gearup Pitstop</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>07942685343</t>
+  </si>
+  <si>
+    <t>07947415504</t>
+  </si>
+  <si>
+    <t>07947414696</t>
+  </si>
+  <si>
+    <t>07947414798</t>
+  </si>
+  <si>
+    <t>07947415985</t>
+  </si>
+  <si>
+    <t>07947415793</t>
+  </si>
+  <si>
+    <t>07947416404</t>
+  </si>
+  <si>
+    <t>07947417583</t>
+  </si>
+  <si>
+    <t>07947416624</t>
+  </si>
+  <si>
+    <t>5,256</t>
+  </si>
+  <si>
+    <t>07411822389</t>
+  </si>
+  <si>
+    <t>MyTVS</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>07487860940</t>
+  </si>
+  <si>
+    <t>HMT Recovey Services</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>09054040135</t>
+  </si>
+  <si>
+    <t>AK Tyres</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>08460204265</t>
+  </si>
+  <si>
+    <t>07947138882</t>
+  </si>
+  <si>
+    <t>07947151008</t>
+  </si>
+  <si>
+    <t>07947152166</t>
+  </si>
+  <si>
+    <t>07947116860</t>
+  </si>
+  <si>
+    <t>07947117579</t>
+  </si>
+  <si>
+    <t>07947119936</t>
+  </si>
+  <si>
+    <t>07947418616</t>
+  </si>
+  <si>
+    <t>07947119119</t>
+  </si>
+  <si>
+    <t>07947119129</t>
+  </si>
+  <si>
+    <t>07947419047</t>
+  </si>
+  <si>
+    <t>07947119542</t>
+  </si>
+  <si>
+    <t>07947420204</t>
+  </si>
+  <si>
+    <t>07947418735</t>
+  </si>
+  <si>
+    <t>07947111982</t>
+  </si>
+  <si>
+    <t>07947421044</t>
+  </si>
+  <si>
+    <t>07947422078</t>
+  </si>
+  <si>
+    <t>07947421921</t>
+  </si>
+  <si>
+    <t>07947421855</t>
+  </si>
+  <si>
+    <t>07947430962</t>
+  </si>
+  <si>
+    <t>07947434918</t>
   </si>
 </sst>
 </file>
@@ -1163,72 +1367,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>147</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>148</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>149</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>241</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>242</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>243</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>244</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>22</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>245</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>246</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/reports/CarDetails.xlsx
+++ b/reports/CarDetails.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="325">
   <si>
     <t>Name</t>
   </si>
@@ -965,6 +965,36 @@
   </si>
   <si>
     <t>07947434918</t>
+  </si>
+  <si>
+    <t>07942688747</t>
+  </si>
+  <si>
+    <t>5k Car Care Pvt Ltd</t>
+  </si>
+  <si>
+    <t>4,309</t>
+  </si>
+  <si>
+    <t>07947116358</t>
+  </si>
+  <si>
+    <t>5 K Network Funmall</t>
+  </si>
+  <si>
+    <t>4,624</t>
+  </si>
+  <si>
+    <t>07947412908</t>
+  </si>
+  <si>
+    <t>5k Network Car Wash</t>
+  </si>
+  <si>
+    <t>2,264</t>
+  </si>
+  <si>
+    <t>07947413358</t>
   </si>
 </sst>
 </file>
@@ -1367,72 +1397,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>6</v>
+        <v>283</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>310</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>31</v>
+        <v>283</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>33</v>
+        <v>316</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>31</v>
+        <v>317</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>13</v>
+        <v>319</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>15</v>
+        <v>320</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>322</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>10</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>129</v>
+        <v>323</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/reports/CarDetails.xlsx
+++ b/reports/CarDetails.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="337">
   <si>
     <t>Name</t>
   </si>
@@ -995,6 +995,42 @@
   </si>
   <si>
     <t>07947413358</t>
+  </si>
+  <si>
+    <t>20,151</t>
+  </si>
+  <si>
+    <t>09740226850</t>
+  </si>
+  <si>
+    <t>1,865</t>
+  </si>
+  <si>
+    <t>07947420142</t>
+  </si>
+  <si>
+    <t>Popular Car Wash</t>
+  </si>
+  <si>
+    <t>1,205</t>
+  </si>
+  <si>
+    <t>07947117867</t>
+  </si>
+  <si>
+    <t>1,045</t>
+  </si>
+  <si>
+    <t>07947421029</t>
+  </si>
+  <si>
+    <t>Ar Auto Detailer</t>
+  </si>
+  <si>
+    <t>749</t>
+  </si>
+  <si>
+    <t>07947112082</t>
   </si>
 </sst>
 </file>
@@ -1397,72 +1433,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>161</v>
+        <v>285</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>283</v>
+        <v>325</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>284</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>315</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>319</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/reports/CarDetails.xlsx
+++ b/reports/CarDetails.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="341">
   <si>
     <t>Name</t>
   </si>
@@ -1031,6 +1031,18 @@
   </si>
   <si>
     <t>07947112082</t>
+  </si>
+  <si>
+    <t>07942677172</t>
+  </si>
+  <si>
+    <t>07947132445</t>
+  </si>
+  <si>
+    <t>07947132858</t>
+  </si>
+  <si>
+    <t>07947133476</t>
   </si>
 </sst>
 </file>
@@ -1456,7 +1468,7 @@
         <v>327</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1470,7 +1482,7 @@
         <v>330</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -1484,7 +1496,7 @@
         <v>332</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -1498,7 +1510,7 @@
         <v>335</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/reports/CarDetails.xlsx
+++ b/reports/CarDetails.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="348">
   <si>
     <t>Name</t>
   </si>
@@ -1043,6 +1043,27 @@
   </si>
   <si>
     <t>07947133476</t>
+  </si>
+  <si>
+    <t>07942697821</t>
+  </si>
+  <si>
+    <t>07942697904</t>
+  </si>
+  <si>
+    <t>07942697767</t>
+  </si>
+  <si>
+    <t>07947431221</t>
+  </si>
+  <si>
+    <t>07947426277</t>
+  </si>
+  <si>
+    <t>07947431040</t>
+  </si>
+  <si>
+    <t>07947431429</t>
   </si>
 </sst>
 </file>
@@ -1445,72 +1466,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>285</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>326</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>327</v>
+        <v>283</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>147</v>
+        <v>319</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>

--- a/reports/CarDetails.xlsx
+++ b/reports/CarDetails.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="356">
   <si>
     <t>Name</t>
   </si>
@@ -1064,6 +1064,30 @@
   </si>
   <si>
     <t>07947431429</t>
+  </si>
+  <si>
+    <t>07942676932</t>
+  </si>
+  <si>
+    <t>07942676800</t>
+  </si>
+  <si>
+    <t>07942676872</t>
+  </si>
+  <si>
+    <t>07947131644</t>
+  </si>
+  <si>
+    <t>07947134103</t>
+  </si>
+  <si>
+    <t>07947133281</t>
+  </si>
+  <si>
+    <t>07947132970</t>
+  </si>
+  <si>
+    <t>07947134114</t>
   </si>
 </sst>
 </file>
@@ -1489,7 +1513,7 @@
         <v>283</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1503,7 +1527,7 @@
         <v>317</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -1517,7 +1541,7 @@
         <v>320</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -1531,7 +1555,7 @@
         <v>323</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/reports/CarDetails.xlsx
+++ b/reports/CarDetails.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="368">
   <si>
     <t>Name</t>
   </si>
@@ -1088,6 +1088,42 @@
   </si>
   <si>
     <t>07947134114</t>
+  </si>
+  <si>
+    <t>07947127377</t>
+  </si>
+  <si>
+    <t>07947126850</t>
+  </si>
+  <si>
+    <t>07947126651</t>
+  </si>
+  <si>
+    <t>07947126938</t>
+  </si>
+  <si>
+    <t>07947127352</t>
+  </si>
+  <si>
+    <t>07947128576</t>
+  </si>
+  <si>
+    <t>07947127798</t>
+  </si>
+  <si>
+    <t>07947128237</t>
+  </si>
+  <si>
+    <t>07947128554</t>
+  </si>
+  <si>
+    <t>07947128560</t>
+  </si>
+  <si>
+    <t>07947129363</t>
+  </si>
+  <si>
+    <t>07947128294</t>
   </si>
 </sst>
 </file>
@@ -1513,7 +1549,7 @@
         <v>283</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1527,7 +1563,7 @@
         <v>317</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -1541,7 +1577,7 @@
         <v>320</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -1555,7 +1591,7 @@
         <v>323</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/reports/CarDetails.xlsx
+++ b/reports/CarDetails.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="376">
   <si>
     <t>Name</t>
   </si>
@@ -1124,6 +1124,30 @@
   </si>
   <si>
     <t>07947128294</t>
+  </si>
+  <si>
+    <t>07947130833</t>
+  </si>
+  <si>
+    <t>07947130941</t>
+  </si>
+  <si>
+    <t>07947130821</t>
+  </si>
+  <si>
+    <t>07947130898</t>
+  </si>
+  <si>
+    <t>07942686653</t>
+  </si>
+  <si>
+    <t>07947412855</t>
+  </si>
+  <si>
+    <t>07942686702</t>
+  </si>
+  <si>
+    <t>07942686711</t>
   </si>
 </sst>
 </file>
@@ -1549,7 +1573,7 @@
         <v>283</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1563,7 +1587,7 @@
         <v>317</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -1577,7 +1601,7 @@
         <v>320</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -1591,7 +1615,7 @@
         <v>323</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
